--- a/Bayer/RPA_EnvioAgendamentoTeams/Execucao/Check List/CheckList_RPA_EnvioAgendamentoTeams.xlsx
+++ b/Bayer/RPA_EnvioAgendamentoTeams/Execucao/Check List/CheckList_RPA_EnvioAgendamentoTeams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Processos\CiaTalentos\Bayer\RPA_EnvioAgendamentoTeams\Execucao\Check List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A48CA8D-8919-4440-979B-F6B592E938CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AAD20C-A371-4E38-A7FC-1E036455E2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1E307CBE-FA5E-4EDB-B62C-1C54A35F008C}"/>
   </bookViews>
@@ -57,10 +57,10 @@
     <t>Conta Remetente esta logado no outlook local da maquina</t>
   </si>
   <si>
+    <t>Envio Agendamento Teams</t>
+  </si>
+  <si>
     <t>Na Área de Trabalho Clique no Atalho EnvioAgendamentoTeams</t>
-  </si>
-  <si>
-    <t>Envio Agendamento Teams</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
                   <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{802D3B02-ED54-ABE1-E672-ABB29D3A4E66}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -866,7 +866,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,7 +889,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -926,7 +926,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="b">
         <v>1</v>
